--- a/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
+++ b/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
@@ -1,156 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002095</t>
-  </si>
-  <si>
-    <t>001167</t>
-  </si>
-  <si>
-    <t>002096</t>
-  </si>
-  <si>
-    <t>210002</t>
-  </si>
-  <si>
-    <t>004211</t>
-  </si>
-  <si>
-    <t>博时新收益灵活配置混合A</t>
-  </si>
-  <si>
-    <t>金鹰科技创新股票</t>
-  </si>
-  <si>
-    <t>博时新收益灵活配置混合C</t>
-  </si>
-  <si>
-    <t>金鹰红利价值混合</t>
-  </si>
-  <si>
-    <t>金鹰周期优选灵活配置混合</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>1.64</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>73.53</t>
-  </si>
-  <si>
-    <t>88.66</t>
-  </si>
-  <si>
-    <t>79.04</t>
-  </si>
-  <si>
-    <t>97.99</t>
-  </si>
-  <si>
-    <t>5.58</t>
-  </si>
-  <si>
-    <t>4.08</t>
-  </si>
-  <si>
-    <t>6.35</t>
-  </si>
-  <si>
-    <t>6.56</t>
-  </si>
-  <si>
-    <t>0.2985</t>
-  </si>
-  <si>
-    <t>0.1191</t>
-  </si>
-  <si>
-    <t>0.0915</t>
-  </si>
-  <si>
-    <t>0.0381</t>
-  </si>
-  <si>
-    <t>0.0164</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,167 +446,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2985</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001167</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰科技创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4295</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
+++ b/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
+++ b/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.6</v>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6869</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1034,1411 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6213</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4568</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3054</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1649</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
+++ b/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2369,7 +2370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2380,17 +2381,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2400,14 +2421,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.88</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2404</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2416,14 +2459,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.6</v>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0454</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2432,13 +2497,2491 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7223</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6819</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6638</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5403</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5181</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4770</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4101</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3777</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3560</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3369</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2712</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1374</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000367</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002061</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002304</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007048</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安安心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
+++ b/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4896,7 +4897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,17 +4908,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4927,14 +4948,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.46</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4943,14 +4986,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.88</v>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4959,14 +5024,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.6</v>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7630</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4975,13 +5062,1443 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6809</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5849</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5689</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5581</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5558</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4118</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2917</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2439</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
+++ b/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="D2" t="n">
-        <v>11.23</v>
+        <v>35.93</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>16.46</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>4.88</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>1.6</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
@@ -566,6 +583,5262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H138"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信兴润一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7484</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8970</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5852</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1790</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9641</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9540</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信改革红利股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7876</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7528</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009391</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6333</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6250</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5907</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5702</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5663</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5579</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5470</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5122</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4982</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4632</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4541</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4436</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4020</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3918</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3815</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3710</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3683</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3481</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3434</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3339</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3054</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2935</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2317</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013561</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012846</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>恒越蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009392</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013461</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013462</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>工银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>75.29</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>77.28</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>013562</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011482</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015585</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>016269</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>建信改革红利股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011483</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014845</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>016463</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2065,7 +7338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4591,7 +9864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6015,7 +11288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6261,7 +11534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
+++ b/数据整理/stocks/A股/创业板/300260-新莱应材.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>35.93</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="D3" t="n">
-        <v>11.23</v>
+        <v>35.93</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>16.46</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>4.88</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>1.6</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.5600000000000001</v>
       </c>
     </row>
@@ -583,6 +600,2794 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信兴润一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5793</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009566</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安泓阳三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3859</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9801</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9178</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7905</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6901</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6627</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6291</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005777</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发科技动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6174</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5761</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5671</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信改革红利股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010412</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇安均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4632</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4572</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4566</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015773</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4256</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3885</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014950</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168601</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安裕阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2670</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2399</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015092</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013461</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014951</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安润阳三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015585</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>016269</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>建信改革红利股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013462</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519935</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信创新驱动股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006271</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007315</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇安嘉盈一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010270</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇安嘉盈一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015093</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006270</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇安核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>017458</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5838,7 +8643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7338,7 +10143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9864,7 +12669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11288,7 +14093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11534,7 +14339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
